--- a/Gantt IMSI 2022.xlsx
+++ b/Gantt IMSI 2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="Questa_cartella_di_lavoro"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B8E4E-A0D0-4EB2-891A-F0E058751D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977366BA-D109-4229-AB17-34C7FC64F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,7 +1270,27 @@
     <xf numFmtId="167" fontId="7" fillId="46" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,29 +1300,9 @@
     <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2097,8 +2097,8 @@
   </sheetPr>
   <dimension ref="A1:DO28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CB27" sqref="CB27"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2106,7 @@
     <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.140625" hidden="1" customWidth="1"/>
@@ -2148,10 +2148,10 @@
       <c r="C3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="77">
         <v>44645</v>
       </c>
-      <c r="E3" s="70"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:119" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -2163,176 +2163,176 @@
       <c r="D4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="73">
         <f>H5</f>
         <v>44641</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="67">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73">
         <f>O5</f>
         <v>44648</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="67">
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="73">
         <f>V5</f>
         <v>44655</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="67">
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="73">
         <f>AC5</f>
         <v>44662</v>
       </c>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="67">
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="73">
         <f>AJ5</f>
         <v>44669</v>
       </c>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="67">
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="73">
         <f>AQ5</f>
         <v>44676</v>
       </c>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="67">
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="73">
         <f>AX5</f>
         <v>44683</v>
       </c>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="67">
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="73">
         <f>BE5</f>
         <v>44690</v>
       </c>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="67">
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="73">
         <f>BL5</f>
         <v>44697</v>
       </c>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="67">
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="74"/>
+      <c r="BO4" s="74"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="74"/>
+      <c r="BR4" s="75"/>
+      <c r="BS4" s="73">
         <f>BS5</f>
         <v>44704</v>
       </c>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="67">
+      <c r="BT4" s="74"/>
+      <c r="BU4" s="74"/>
+      <c r="BV4" s="74"/>
+      <c r="BW4" s="74"/>
+      <c r="BX4" s="74"/>
+      <c r="BY4" s="75"/>
+      <c r="BZ4" s="73">
         <f>BZ5</f>
         <v>44711</v>
       </c>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="69"/>
-      <c r="CG4" s="67">
+      <c r="CA4" s="74"/>
+      <c r="CB4" s="74"/>
+      <c r="CC4" s="74"/>
+      <c r="CD4" s="74"/>
+      <c r="CE4" s="74"/>
+      <c r="CF4" s="75"/>
+      <c r="CG4" s="73">
         <f>CG5</f>
         <v>44718</v>
       </c>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="68"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="69"/>
-      <c r="CN4" s="67">
+      <c r="CH4" s="74"/>
+      <c r="CI4" s="74"/>
+      <c r="CJ4" s="74"/>
+      <c r="CK4" s="74"/>
+      <c r="CL4" s="74"/>
+      <c r="CM4" s="75"/>
+      <c r="CN4" s="73">
         <f>CN5</f>
         <v>44725</v>
       </c>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="68"/>
-      <c r="CS4" s="68"/>
-      <c r="CT4" s="69"/>
-      <c r="CU4" s="67">
+      <c r="CO4" s="74"/>
+      <c r="CP4" s="74"/>
+      <c r="CQ4" s="74"/>
+      <c r="CR4" s="74"/>
+      <c r="CS4" s="74"/>
+      <c r="CT4" s="75"/>
+      <c r="CU4" s="73">
         <f>CU5</f>
         <v>44732</v>
       </c>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="69"/>
-      <c r="DB4" s="67">
+      <c r="CV4" s="74"/>
+      <c r="CW4" s="74"/>
+      <c r="CX4" s="74"/>
+      <c r="CY4" s="74"/>
+      <c r="CZ4" s="74"/>
+      <c r="DA4" s="75"/>
+      <c r="DB4" s="73">
         <f>DB5</f>
         <v>44739</v>
       </c>
-      <c r="DC4" s="68"/>
-      <c r="DD4" s="68"/>
-      <c r="DE4" s="68"/>
-      <c r="DF4" s="68"/>
-      <c r="DG4" s="68"/>
-      <c r="DH4" s="69"/>
-      <c r="DI4" s="67">
+      <c r="DC4" s="74"/>
+      <c r="DD4" s="74"/>
+      <c r="DE4" s="74"/>
+      <c r="DF4" s="74"/>
+      <c r="DG4" s="74"/>
+      <c r="DH4" s="75"/>
+      <c r="DI4" s="73">
         <f>DI5</f>
         <v>44746</v>
       </c>
-      <c r="DJ4" s="68"/>
-      <c r="DK4" s="68"/>
-      <c r="DL4" s="68"/>
-      <c r="DM4" s="68"/>
-      <c r="DN4" s="68"/>
-      <c r="DO4" s="69"/>
+      <c r="DJ4" s="74"/>
+      <c r="DK4" s="74"/>
+      <c r="DL4" s="74"/>
+      <c r="DM4" s="74"/>
+      <c r="DN4" s="74"/>
+      <c r="DO4" s="75"/>
     </row>
     <row r="5" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="H5" s="47">
         <f>Inizio_progetto-WEEKDAY(Inizio_progetto,1)+2+7*(Visualizza_settimana-1)</f>
         <v>44641</v>
@@ -2737,11 +2737,11 @@
         <f t="shared" ref="DD5" si="36">DC5+1</f>
         <v>44741</v>
       </c>
-      <c r="DE5" s="72">
+      <c r="DE5" s="67">
         <f t="shared" ref="DE5" si="37">DD5+1</f>
         <v>44742</v>
       </c>
-      <c r="DF5" s="75">
+      <c r="DF5" s="70">
         <f t="shared" ref="DF5" si="38">DE5+1</f>
         <v>44743</v>
       </c>
@@ -3204,15 +3204,15 @@
         <f t="shared" si="49"/>
         <v>m</v>
       </c>
-      <c r="DE6" s="73" t="str">
+      <c r="DE6" s="68" t="str">
         <f t="shared" si="49"/>
         <v>g</v>
       </c>
-      <c r="DF6" s="76" t="str">
+      <c r="DF6" s="71" t="str">
         <f t="shared" si="49"/>
         <v>v</v>
       </c>
-      <c r="DG6" s="71" t="str">
+      <c r="DG6" s="66" t="str">
         <f t="shared" si="49"/>
         <v>s</v>
       </c>
@@ -3365,8 +3365,8 @@
       <c r="DB7" s="15"/>
       <c r="DC7" s="15"/>
       <c r="DD7" s="15"/>
-      <c r="DE7" s="74"/>
-      <c r="DF7" s="77"/>
+      <c r="DE7" s="69"/>
+      <c r="DF7" s="72"/>
       <c r="DG7" s="52"/>
       <c r="DH7" s="15"/>
       <c r="DI7" s="15"/>
@@ -3497,8 +3497,8 @@
       <c r="DB8" s="15"/>
       <c r="DC8" s="15"/>
       <c r="DD8" s="15"/>
-      <c r="DE8" s="74"/>
-      <c r="DF8" s="77"/>
+      <c r="DE8" s="69"/>
+      <c r="DF8" s="72"/>
       <c r="DG8" s="52"/>
       <c r="DH8" s="15"/>
       <c r="DI8" s="15"/>
@@ -3628,8 +3628,8 @@
       <c r="DB9" s="15"/>
       <c r="DC9" s="15"/>
       <c r="DD9" s="15"/>
-      <c r="DE9" s="74"/>
-      <c r="DF9" s="77"/>
+      <c r="DE9" s="69"/>
+      <c r="DF9" s="72"/>
       <c r="DG9" s="52"/>
       <c r="DH9" s="15"/>
       <c r="DI9" s="15"/>
@@ -3754,8 +3754,8 @@
       <c r="DB10" s="15"/>
       <c r="DC10" s="15"/>
       <c r="DD10" s="15"/>
-      <c r="DE10" s="74"/>
-      <c r="DF10" s="77"/>
+      <c r="DE10" s="69"/>
+      <c r="DF10" s="72"/>
       <c r="DG10" s="52"/>
       <c r="DH10" s="15"/>
       <c r="DI10" s="15"/>
@@ -3880,8 +3880,8 @@
       <c r="DB11" s="15"/>
       <c r="DC11" s="15"/>
       <c r="DD11" s="15"/>
-      <c r="DE11" s="74"/>
-      <c r="DF11" s="77"/>
+      <c r="DE11" s="69"/>
+      <c r="DF11" s="72"/>
       <c r="DG11" s="52"/>
       <c r="DH11" s="15"/>
       <c r="DI11" s="15"/>
@@ -4010,8 +4010,8 @@
       <c r="DB12" s="15"/>
       <c r="DC12" s="15"/>
       <c r="DD12" s="15"/>
-      <c r="DE12" s="74"/>
-      <c r="DF12" s="77"/>
+      <c r="DE12" s="69"/>
+      <c r="DF12" s="72"/>
       <c r="DG12" s="52"/>
       <c r="DH12" s="15"/>
       <c r="DI12" s="15"/>
@@ -4140,8 +4140,8 @@
       <c r="DB13" s="15"/>
       <c r="DC13" s="15"/>
       <c r="DD13" s="15"/>
-      <c r="DE13" s="74"/>
-      <c r="DF13" s="77"/>
+      <c r="DE13" s="69"/>
+      <c r="DF13" s="72"/>
       <c r="DG13" s="52"/>
       <c r="DH13" s="15"/>
       <c r="DI13" s="15"/>
@@ -4270,8 +4270,8 @@
       <c r="DB14" s="15"/>
       <c r="DC14" s="15"/>
       <c r="DD14" s="15"/>
-      <c r="DE14" s="74"/>
-      <c r="DF14" s="77"/>
+      <c r="DE14" s="69"/>
+      <c r="DF14" s="72"/>
       <c r="DG14" s="52"/>
       <c r="DH14" s="15"/>
       <c r="DI14" s="15"/>
@@ -4396,8 +4396,8 @@
       <c r="DB15" s="15"/>
       <c r="DC15" s="15"/>
       <c r="DD15" s="15"/>
-      <c r="DE15" s="74"/>
-      <c r="DF15" s="77"/>
+      <c r="DE15" s="69"/>
+      <c r="DF15" s="72"/>
       <c r="DG15" s="52"/>
       <c r="DH15" s="15"/>
       <c r="DI15" s="15"/>
@@ -4526,8 +4526,8 @@
       <c r="DB16" s="15"/>
       <c r="DC16" s="15"/>
       <c r="DD16" s="15"/>
-      <c r="DE16" s="74"/>
-      <c r="DF16" s="77"/>
+      <c r="DE16" s="69"/>
+      <c r="DF16" s="72"/>
       <c r="DG16" s="52"/>
       <c r="DH16" s="15"/>
       <c r="DI16" s="15"/>
@@ -4656,8 +4656,8 @@
       <c r="DB17" s="15"/>
       <c r="DC17" s="15"/>
       <c r="DD17" s="15"/>
-      <c r="DE17" s="74"/>
-      <c r="DF17" s="77"/>
+      <c r="DE17" s="69"/>
+      <c r="DF17" s="72"/>
       <c r="DG17" s="52"/>
       <c r="DH17" s="15"/>
       <c r="DI17" s="15"/>
@@ -4786,8 +4786,8 @@
       <c r="DB18" s="15"/>
       <c r="DC18" s="15"/>
       <c r="DD18" s="15"/>
-      <c r="DE18" s="74"/>
-      <c r="DF18" s="77"/>
+      <c r="DE18" s="69"/>
+      <c r="DF18" s="72"/>
       <c r="DG18" s="52"/>
       <c r="DH18" s="15"/>
       <c r="DI18" s="15"/>
@@ -4914,8 +4914,8 @@
       <c r="DB19" s="15"/>
       <c r="DC19" s="15"/>
       <c r="DD19" s="15"/>
-      <c r="DE19" s="74"/>
-      <c r="DF19" s="77"/>
+      <c r="DE19" s="69"/>
+      <c r="DF19" s="72"/>
       <c r="DG19" s="52"/>
       <c r="DH19" s="15"/>
       <c r="DI19" s="15"/>
@@ -5044,8 +5044,8 @@
       <c r="DB20" s="15"/>
       <c r="DC20" s="15"/>
       <c r="DD20" s="15"/>
-      <c r="DE20" s="74"/>
-      <c r="DF20" s="77"/>
+      <c r="DE20" s="69"/>
+      <c r="DF20" s="72"/>
       <c r="DG20" s="52"/>
       <c r="DH20" s="15"/>
       <c r="DI20" s="15"/>
@@ -5174,8 +5174,8 @@
       <c r="DB21" s="15"/>
       <c r="DC21" s="15"/>
       <c r="DD21" s="15"/>
-      <c r="DE21" s="74"/>
-      <c r="DF21" s="77"/>
+      <c r="DE21" s="69"/>
+      <c r="DF21" s="72"/>
       <c r="DG21" s="52"/>
       <c r="DH21" s="15"/>
       <c r="DI21" s="15"/>
@@ -5304,8 +5304,8 @@
       <c r="DB22" s="15"/>
       <c r="DC22" s="15"/>
       <c r="DD22" s="15"/>
-      <c r="DE22" s="74"/>
-      <c r="DF22" s="77"/>
+      <c r="DE22" s="69"/>
+      <c r="DF22" s="72"/>
       <c r="DG22" s="52"/>
       <c r="DH22" s="15"/>
       <c r="DI22" s="15"/>
@@ -5432,8 +5432,8 @@
       <c r="DB23" s="15"/>
       <c r="DC23" s="15"/>
       <c r="DD23" s="15"/>
-      <c r="DE23" s="74"/>
-      <c r="DF23" s="77"/>
+      <c r="DE23" s="69"/>
+      <c r="DF23" s="72"/>
       <c r="DG23" s="52"/>
       <c r="DH23" s="15"/>
       <c r="DI23" s="15"/>
@@ -5562,8 +5562,8 @@
       <c r="DB24" s="15"/>
       <c r="DC24" s="15"/>
       <c r="DD24" s="15"/>
-      <c r="DE24" s="74"/>
-      <c r="DF24" s="77"/>
+      <c r="DE24" s="69"/>
+      <c r="DF24" s="72"/>
       <c r="DG24" s="52"/>
       <c r="DH24" s="15"/>
       <c r="DI24" s="15"/>
@@ -5689,8 +5689,8 @@
       <c r="DB25" s="15"/>
       <c r="DC25" s="15"/>
       <c r="DD25" s="15"/>
-      <c r="DE25" s="74"/>
-      <c r="DF25" s="77"/>
+      <c r="DE25" s="69"/>
+      <c r="DF25" s="72"/>
       <c r="DG25" s="52"/>
       <c r="DH25" s="15"/>
       <c r="DI25" s="15"/>
@@ -5819,8 +5819,8 @@
       <c r="DB26" s="15"/>
       <c r="DC26" s="15"/>
       <c r="DD26" s="15"/>
-      <c r="DE26" s="74"/>
-      <c r="DF26" s="77"/>
+      <c r="DE26" s="69"/>
+      <c r="DF26" s="72"/>
       <c r="DG26" s="52"/>
       <c r="DH26" s="15"/>
       <c r="DI26" s="15"/>
@@ -5949,8 +5949,8 @@
       <c r="DB27" s="15"/>
       <c r="DC27" s="15"/>
       <c r="DD27" s="15"/>
-      <c r="DE27" s="74"/>
-      <c r="DF27" s="77"/>
+      <c r="DE27" s="69"/>
+      <c r="DF27" s="72"/>
       <c r="DG27" s="52"/>
       <c r="DH27" s="15"/>
       <c r="DI27" s="15"/>
@@ -6075,8 +6075,8 @@
       <c r="DB28" s="15"/>
       <c r="DC28" s="15"/>
       <c r="DD28" s="15"/>
-      <c r="DE28" s="74"/>
-      <c r="DF28" s="77"/>
+      <c r="DE28" s="69"/>
+      <c r="DF28" s="72"/>
       <c r="DG28" s="52"/>
       <c r="DH28" s="15"/>
       <c r="DI28" s="15"/>
@@ -6089,16 +6089,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
@@ -6107,6 +6097,16 @@
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="DI4:DO4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BK27 BL5:CE28">
     <cfRule type="expression" dxfId="26" priority="69">
@@ -6259,15 +6259,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B0C3C953A44194C9556B6911ABAE3C6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa7da779a4b26adca7446553649c75b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24f62889-e490-4404-9afc-66ec72deeee9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="473b43613de7aa3183e12f1048d7531b" ns2:_="">
     <xsd:import namespace="24f62889-e490-4404-9afc-66ec72deeee9"/>
@@ -6411,6 +6402,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97755E7F-F5C1-4672-AB8C-9B0837C1C9A2}">
   <ds:schemaRefs>
@@ -6421,14 +6421,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09E076AC-03FD-4E60-ADAD-F87E1E6610D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5753892C-F978-4A43-9519-ECCE24FD13A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6444,4 +6436,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09E076AC-03FD-4E60-ADAD-F87E1E6610D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>